--- a/classes/Physics9ab/downloads/kiskuka.xlsx
+++ b/classes/Physics9ab/downloads/kiskuka.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabai\OneDrive - Kormányzati Informatikai Fejlesztési Ügynökség\github\acsabai.github.io\classes\Physics9ab\downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csabai\OneDrive - Kormányzati Informatikai Fejlesztési Ügynökség\engphys\9ab\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId1"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Area 
 (symbol, units, conversion factor)</t>
@@ -135,12 +136,17 @@
 How do you calculate?
 s=</t>
   </si>
+  <si>
+    <t>A kérdések csak tájékoztató jellegűek 
+az aktuális órai tananyaggal akkor is bővülnek,
+ ha a táblázat nincs frissítve!</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +166,13 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="26"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -277,8 +290,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -309,11 +329,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -343,8 +359,8 @@
       <xdr:rowOff>156210</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="113942" cy="172227"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -380,6 +396,7 @@
             </a:bodyPr>
             <a:lstStyle/>
             <a:p>
+              <a:pPr/>
               <a14:m>
                 <m:oMathPara xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math">
                   <m:oMathParaPr>
@@ -400,7 +417,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -819,593 +836,659 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="100.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="1:1" ht="100.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="14" t="s">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection sqref="A1:C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+    </row>
+    <row r="2" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41:I50"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="1" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="2"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="3"/>
-    </row>
-    <row r="2" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="4"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="6"/>
-    </row>
-    <row r="3" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="4"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="6"/>
-    </row>
-    <row r="4" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6"/>
-    </row>
-    <row r="5" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4"/>
-      <c r="B5" s="5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
-      <c r="I5" s="6"/>
-    </row>
-    <row r="6" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="6"/>
-    </row>
-    <row r="7" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="4"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="6"/>
-    </row>
-    <row r="8" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="4"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="6"/>
-    </row>
-    <row r="9" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="6"/>
-    </row>
-    <row r="10" spans="1:9" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
+    </row>
+    <row r="2" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="9"/>
+    </row>
+    <row r="3" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="9"/>
+    </row>
+    <row r="4" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7"/>
+      <c r="B4" s="8"/>
+      <c r="C4" s="9"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="8"/>
+      <c r="I4" s="9"/>
+    </row>
+    <row r="5" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7"/>
+      <c r="B5" s="8"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="7"/>
+      <c r="H5" s="8"/>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7"/>
+      <c r="B6" s="8"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="8"/>
+      <c r="I6" s="9"/>
+    </row>
+    <row r="7" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7"/>
+      <c r="B7" s="8"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="8"/>
+      <c r="I7" s="9"/>
+    </row>
+    <row r="8" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="8"/>
+      <c r="I8" s="9"/>
+    </row>
+    <row r="9" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7"/>
+      <c r="B9" s="8"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="8"/>
+      <c r="I9" s="9"/>
+    </row>
+    <row r="10" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="12"/>
+    </row>
+    <row r="11" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="1" t="s">
+      <c r="B11" s="5"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="5"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="3"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="4"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="6"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="4"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5"/>
-      <c r="I13" s="6"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5"/>
-      <c r="I14" s="6"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5"/>
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5"/>
-      <c r="I16" s="6"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="6"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="5"/>
-      <c r="I19" s="6"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="H11" s="5"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="7"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="9"/>
+    </row>
+    <row r="13" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7"/>
+      <c r="B13" s="8"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="8"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="8"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7"/>
+      <c r="B14" s="8"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="7"/>
+      <c r="H14" s="8"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7"/>
+      <c r="B15" s="8"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="8"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="8"/>
+      <c r="I15" s="9"/>
+    </row>
+    <row r="16" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7"/>
+      <c r="B16" s="8"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="9"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="9"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7"/>
+      <c r="B18" s="8"/>
+      <c r="C18" s="9"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="9"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="8"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7"/>
+      <c r="B19" s="8"/>
+      <c r="C19" s="9"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="9"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="8"/>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="12"/>
+    </row>
+    <row r="21" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="1" t="s">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="1" t="s">
+      <c r="E21" s="5"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H21" s="2"/>
-      <c r="I21" s="3"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="5"/>
-      <c r="I22" s="6"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="5"/>
-      <c r="I23" s="6"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="6"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="5"/>
-      <c r="I25" s="6"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="6"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="5"/>
-      <c r="I26" s="6"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="5"/>
-      <c r="I27" s="6"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="5"/>
-      <c r="I28" s="6"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="5"/>
-      <c r="I29" s="6"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="8"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="H21" s="5"/>
+      <c r="I21" s="6"/>
+    </row>
+    <row r="22" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7"/>
+      <c r="B22" s="8"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="7"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="9"/>
+      <c r="G23" s="7"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="7"/>
+      <c r="H24" s="8"/>
+      <c r="I24" s="9"/>
+    </row>
+    <row r="25" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="8"/>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7"/>
+      <c r="B26" s="8"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="7"/>
+      <c r="H26" s="8"/>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7"/>
+      <c r="B27" s="8"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="8"/>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7"/>
+      <c r="B28" s="8"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="8"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="7"/>
+      <c r="H28" s="8"/>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="9"/>
+      <c r="G29" s="7"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="9"/>
+    </row>
+    <row r="30" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="10"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="12"/>
+    </row>
+    <row r="31" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="1" t="s">
+      <c r="B31" s="5"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="1" t="s">
+      <c r="E31" s="5"/>
+      <c r="F31" s="6"/>
+      <c r="G31" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="H31" s="2"/>
-      <c r="I31" s="3"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="5"/>
-      <c r="F32" s="6"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="5"/>
-      <c r="I32" s="6"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="5"/>
-      <c r="F33" s="6"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="5"/>
-      <c r="I33" s="6"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="5"/>
-      <c r="F34" s="6"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="5"/>
-      <c r="I34" s="6"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="5"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="5"/>
-      <c r="I35" s="6"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="5"/>
-      <c r="F36" s="6"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="5"/>
-      <c r="I36" s="6"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="5"/>
-      <c r="F37" s="6"/>
-      <c r="G37" s="4"/>
-      <c r="H37" s="5"/>
-      <c r="I37" s="6"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="4"/>
-      <c r="H38" s="5"/>
-      <c r="I38" s="6"/>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="5"/>
-      <c r="F39" s="6"/>
-      <c r="G39" s="4"/>
-      <c r="H39" s="5"/>
-      <c r="I39" s="6"/>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A40" s="7"/>
-      <c r="B40" s="8"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="7"/>
-      <c r="E40" s="8"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="7"/>
-      <c r="H40" s="8"/>
-      <c r="I40" s="9"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
+      <c r="H31" s="5"/>
+      <c r="I31" s="6"/>
+    </row>
+    <row r="32" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7"/>
+      <c r="B32" s="8"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="7"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="9"/>
+      <c r="G32" s="7"/>
+      <c r="H32" s="8"/>
+      <c r="I32" s="9"/>
+    </row>
+    <row r="33" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7"/>
+      <c r="B33" s="8"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="9"/>
+      <c r="G33" s="7"/>
+      <c r="H33" s="8"/>
+      <c r="I33" s="9"/>
+    </row>
+    <row r="34" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7"/>
+      <c r="B34" s="8"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="9"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="8"/>
+      <c r="I34" s="9"/>
+    </row>
+    <row r="35" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7"/>
+      <c r="B35" s="8"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="9"/>
+    </row>
+    <row r="36" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="8"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="9"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="8"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="9"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="8"/>
+      <c r="I37" s="9"/>
+    </row>
+    <row r="38" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7"/>
+      <c r="B38" s="8"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="9"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="8"/>
+      <c r="I38" s="9"/>
+    </row>
+    <row r="39" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7"/>
+      <c r="B39" s="8"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="9"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="8"/>
+      <c r="I39" s="9"/>
+    </row>
+    <row r="40" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="10"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="12"/>
+    </row>
+    <row r="41" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="1" t="s">
+      <c r="B41" s="5"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="1" t="s">
+      <c r="E41" s="5"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="H41" s="2"/>
-      <c r="I41" s="3"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="4"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="5"/>
-      <c r="I42" s="6"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="4"/>
-      <c r="H43" s="5"/>
-      <c r="I43" s="6"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="4"/>
-      <c r="H44" s="5"/>
-      <c r="I44" s="6"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="4"/>
-      <c r="H45" s="5"/>
-      <c r="I45" s="6"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="4"/>
-      <c r="H46" s="5"/>
-      <c r="I46" s="6"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="4"/>
-      <c r="H47" s="5"/>
-      <c r="I47" s="6"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="4"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="6"/>
-      <c r="G48" s="4"/>
-      <c r="H48" s="5"/>
-      <c r="I48" s="6"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="4"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="4"/>
-      <c r="H49" s="5"/>
-      <c r="I49" s="6"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A50" s="7"/>
-      <c r="B50" s="8"/>
-      <c r="C50" s="9"/>
-      <c r="D50" s="7"/>
-      <c r="E50" s="8"/>
-      <c r="F50" s="9"/>
-      <c r="G50" s="7"/>
-      <c r="H50" s="8"/>
-      <c r="I50" s="9"/>
+      <c r="H41" s="5"/>
+      <c r="I41" s="6"/>
+    </row>
+    <row r="42" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="8"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="9"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="9"/>
+    </row>
+    <row r="43" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="9"/>
+    </row>
+    <row r="44" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="9"/>
+    </row>
+    <row r="45" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="8"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="9"/>
+    </row>
+    <row r="46" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="9"/>
+    </row>
+    <row r="47" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="8"/>
+      <c r="I47" s="9"/>
+    </row>
+    <row r="48" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="9"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="8"/>
+      <c r="I48" s="9"/>
+    </row>
+    <row r="49" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="9"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
+      <c r="I49" s="9"/>
+    </row>
+    <row r="50" spans="1:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -1431,12 +1514,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1444,93 +1527,50 @@
     <col min="1" max="3" width="25.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:3" ht="127.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:3" ht="127.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:3" ht="127.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="12"/>
-    </row>
-    <row r="4" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-    </row>
-    <row r="5" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="C3" s="2"/>
+    </row>
+    <row r="4" spans="1:3" ht="127.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+    </row>
+    <row r="5" spans="1:3" ht="127.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="3" width="25.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-    </row>
-    <row r="2" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-    </row>
-    <row r="3" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-    </row>
-    <row r="4" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-    </row>
-    <row r="5" spans="1:3" ht="130.05000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>